--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$143</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -594,16 +594,6 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the component.code pattern</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>MedicationKnowledge.relatedMedicationKnowledge.id</t>
   </si>
   <si>
@@ -667,17 +657,6 @@
     <t>Associated documentation about the associated medication knowledge.</t>
   </si>
   <si>
-    <t>isaPharmaceuticalProductOf</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/relMedCS"/&gt;
-    &lt;code value="PHARMOF"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>MedicationKnowledge.associatedMedication</t>
   </si>
   <si>
@@ -705,6 +684,9 @@
   <si>
     <t xml:space="preserve">value:$this}
 </t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>productLevel</t>
@@ -1061,6 +1043,13 @@
   </si>
   <si>
     <t>Categorization of the medication within a formulary or classification system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>MedicationKnowledge.medicineClassification.id</t>
@@ -1708,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM149"/>
+  <dimension ref="A1:AM143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1718,7 +1707,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="82.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.97265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3552,7 +3541,7 @@
         <v>71</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>69</v>
@@ -3606,16 +3595,16 @@
         <v>69</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>180</v>
@@ -3647,7 +3636,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3673,10 +3662,10 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3727,7 +3716,7 @@
         <v>69</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>70</v>
@@ -3742,7 +3731,7 @@
         <v>69</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>69</v>
@@ -3756,7 +3745,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3785,7 +3774,7 @@
         <v>124</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>126</v>
@@ -3838,7 +3827,7 @@
         <v>69</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>70</v>
@@ -3853,7 +3842,7 @@
         <v>128</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>69</v>
@@ -3867,11 +3856,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3893,10 +3882,10 @@
         <v>123</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>126</v>
@@ -3951,7 +3940,7 @@
         <v>69</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>70</v>
@@ -3980,7 +3969,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4006,10 +3995,10 @@
         <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4060,7 +4049,7 @@
         <v>69</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4087,9 +4076,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4103,7 +4092,7 @@
         <v>71</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>69</v>
@@ -4112,13 +4101,13 @@
         <v>69</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4169,7 +4158,7 @@
         <v>69</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4196,13 +4185,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>69</v>
       </c>
@@ -4214,7 +4201,7 @@
         <v>71</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>69</v>
@@ -4223,13 +4210,13 @@
         <v>69</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4280,7 +4267,7 @@
         <v>69</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>70</v>
@@ -4309,7 +4296,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4317,13 +4304,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>69</v>
@@ -4332,13 +4319,13 @@
         <v>69</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4377,34 +4364,32 @@
         <v>69</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>69</v>
@@ -4418,18 +4403,20 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>69</v>
@@ -4441,17 +4428,15 @@
         <v>69</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>69</v>
@@ -4461,7 +4446,7 @@
         <v>69</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>69</v>
@@ -4500,7 +4485,7 @@
         <v>69</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>70</v>
@@ -4512,10 +4497,10 @@
         <v>69</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>69</v>
@@ -4529,43 +4514,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>69</v>
       </c>
@@ -4574,7 +4557,7 @@
         <v>69</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>69</v>
@@ -4613,7 +4596,7 @@
         <v>69</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>70</v>
@@ -4625,10 +4608,10 @@
         <v>69</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>69</v>
@@ -4640,9 +4623,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4650,13 +4633,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>69</v>
@@ -4665,13 +4648,13 @@
         <v>69</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4683,7 +4666,7 @@
         <v>69</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>69</v>
@@ -4722,13 +4705,13 @@
         <v>69</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>69</v>
@@ -4751,7 +4734,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4759,11 +4742,11 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="G28" t="s" s="2">
         <v>69</v>
       </c>
@@ -4774,13 +4757,13 @@
         <v>69</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4831,22 +4814,22 @@
         <v>69</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AH28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>69</v>
@@ -4860,11 +4843,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4883,15 +4866,17 @@
         <v>69</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>69</v>
@@ -4940,7 +4925,7 @@
         <v>69</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>70</v>
@@ -4952,10 +4937,10 @@
         <v>69</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>69</v>
@@ -4969,39 +4954,43 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>69</v>
       </c>
@@ -5037,17 +5026,19 @@
         <v>69</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>70</v>
@@ -5059,10 +5050,10 @@
         <v>69</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>69</v>
@@ -5076,17 +5067,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>69</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
@@ -5104,10 +5093,10 @@
         <v>135</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5119,7 +5108,7 @@
         <v>69</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>69</v>
@@ -5158,13 +5147,13 @@
         <v>69</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>69</v>
@@ -5187,17 +5176,15 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>69</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>77</v>
@@ -5212,13 +5199,13 @@
         <v>69</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5230,7 +5217,7 @@
         <v>69</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>69</v>
@@ -5269,13 +5256,13 @@
         <v>69</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>69</v>
@@ -5298,7 +5285,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5324,10 +5311,10 @@
         <v>181</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5378,7 +5365,7 @@
         <v>69</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>70</v>
@@ -5407,7 +5394,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5433,10 +5420,10 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5487,7 +5474,7 @@
         <v>69</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>70</v>
@@ -5502,7 +5489,7 @@
         <v>69</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>69</v>
@@ -5516,7 +5503,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5545,7 +5532,7 @@
         <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>126</v>
@@ -5598,7 +5585,7 @@
         <v>69</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>70</v>
@@ -5613,7 +5600,7 @@
         <v>128</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>69</v>
@@ -5627,11 +5614,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5653,10 +5640,10 @@
         <v>123</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>126</v>
@@ -5711,7 +5698,7 @@
         <v>69</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>70</v>
@@ -5740,7 +5727,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5748,7 +5735,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>77</v>
@@ -5763,13 +5750,13 @@
         <v>69</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5820,10 +5807,10 @@
         <v>69</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5835,21 +5822,21 @@
         <v>89</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5872,16 +5859,18 @@
         <v>69</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>69</v>
       </c>
@@ -5929,7 +5918,7 @@
         <v>69</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>70</v>
@@ -5944,7 +5933,7 @@
         <v>89</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>69</v>
@@ -5956,9 +5945,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5969,10 +5958,10 @@
         <v>70</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>69</v>
@@ -5981,13 +5970,13 @@
         <v>69</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6038,13 +6027,13 @@
         <v>69</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>69</v>
@@ -6053,21 +6042,21 @@
         <v>89</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>69</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6090,13 +6079,13 @@
         <v>69</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6147,7 +6136,7 @@
         <v>69</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>70</v>
@@ -6159,10 +6148,10 @@
         <v>69</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>69</v>
@@ -6174,13 +6163,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6190,7 +6179,7 @@
         <v>71</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>69</v>
@@ -6199,17 +6188,15 @@
         <v>69</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>69</v>
@@ -6234,13 +6221,13 @@
         <v>69</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>69</v>
@@ -6258,7 +6245,7 @@
         <v>69</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>70</v>
@@ -6270,10 +6257,10 @@
         <v>69</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>69</v>
@@ -6287,11 +6274,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6304,26 +6291,22 @@
         <v>69</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>69</v>
       </c>
@@ -6371,7 +6354,7 @@
         <v>69</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>70</v>
@@ -6383,10 +6366,10 @@
         <v>69</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>69</v>
@@ -6400,7 +6383,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6408,7 +6391,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>77</v>
@@ -6423,13 +6406,13 @@
         <v>69</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6480,10 +6463,10 @@
         <v>69</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6492,35 +6475,35 @@
         <v>69</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>244</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>69</v>
@@ -6532,18 +6515,18 @@
         <v>69</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>69</v>
       </c>
@@ -6591,22 +6574,22 @@
         <v>69</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>69</v>
@@ -6620,39 +6603,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>69</v>
       </c>
@@ -6700,36 +6687,36 @@
         <v>69</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>256</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6737,7 +6724,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>77</v>
@@ -6752,13 +6739,13 @@
         <v>69</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6809,10 +6796,10 @@
         <v>69</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6836,9 +6823,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6849,10 +6836,10 @@
         <v>70</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>69</v>
@@ -6861,13 +6848,13 @@
         <v>69</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6894,13 +6881,13 @@
         <v>69</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>69</v>
@@ -6918,13 +6905,13 @@
         <v>69</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>69</v>
@@ -6945,9 +6932,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6955,13 +6942,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>69</v>
@@ -6970,13 +6957,13 @@
         <v>69</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7027,13 +7014,13 @@
         <v>69</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>69</v>
@@ -7056,7 +7043,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7067,7 +7054,7 @@
         <v>70</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>69</v>
@@ -7079,13 +7066,13 @@
         <v>69</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7136,22 +7123,22 @@
         <v>69</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>69</v>
@@ -7165,18 +7152,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>69</v>
@@ -7188,17 +7175,15 @@
         <v>69</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>69</v>
@@ -7247,22 +7232,22 @@
         <v>69</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>69</v>
@@ -7276,11 +7261,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7293,26 +7278,24 @@
         <v>69</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>69</v>
       </c>
@@ -7360,7 +7343,7 @@
         <v>69</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>70</v>
@@ -7375,7 +7358,7 @@
         <v>128</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>69</v>
@@ -7389,39 +7372,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>69</v>
       </c>
@@ -7469,22 +7456,22 @@
         <v>69</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>69</v>
@@ -7498,7 +7485,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7521,13 +7508,13 @@
         <v>69</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7578,7 +7565,7 @@
         <v>69</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>70</v>
@@ -7607,7 +7594,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7615,7 +7602,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>77</v>
@@ -7630,13 +7617,13 @@
         <v>69</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7687,10 +7674,10 @@
         <v>69</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7716,7 +7703,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7742,10 +7729,10 @@
         <v>181</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7796,7 +7783,7 @@
         <v>69</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>70</v>
@@ -7825,7 +7812,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7851,10 +7838,10 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7905,7 +7892,7 @@
         <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>70</v>
@@ -7920,7 +7907,7 @@
         <v>69</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>69</v>
@@ -7934,7 +7921,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7963,7 +7950,7 @@
         <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>126</v>
@@ -8016,7 +8003,7 @@
         <v>69</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>70</v>
@@ -8031,7 +8018,7 @@
         <v>128</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>69</v>
@@ -8045,11 +8032,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8071,10 +8058,10 @@
         <v>123</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>126</v>
@@ -8129,7 +8116,7 @@
         <v>69</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>70</v>
@@ -8158,7 +8145,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8169,7 +8156,7 @@
         <v>70</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>69</v>
@@ -8181,13 +8168,13 @@
         <v>69</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8238,13 +8225,13 @@
         <v>69</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>69</v>
@@ -8267,7 +8254,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8293,10 +8280,10 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8347,7 +8334,7 @@
         <v>69</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>70</v>
@@ -8359,10 +8346,10 @@
         <v>69</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>69</v>
@@ -8376,11 +8363,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8399,15 +8386,17 @@
         <v>69</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>69</v>
@@ -8456,7 +8445,7 @@
         <v>69</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>70</v>
@@ -8468,10 +8457,10 @@
         <v>69</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>69</v>
@@ -8485,39 +8474,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>69</v>
       </c>
@@ -8565,22 +8558,22 @@
         <v>69</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>69</v>
@@ -8594,18 +8587,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>69</v>
@@ -8617,17 +8610,15 @@
         <v>69</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>69</v>
@@ -8676,22 +8667,22 @@
         <v>69</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>69</v>
@@ -8705,15 +8696,15 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>71</v>
@@ -8722,26 +8713,22 @@
         <v>69</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>69</v>
       </c>
@@ -8789,10 +8776,10 @@
         <v>69</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>71</v>
@@ -8801,10 +8788,10 @@
         <v>69</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>69</v>
@@ -8818,7 +8805,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8829,7 +8816,7 @@
         <v>70</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>69</v>
@@ -8841,13 +8828,13 @@
         <v>69</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8898,13 +8885,13 @@
         <v>69</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>69</v>
@@ -8927,7 +8914,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8938,7 +8925,7 @@
         <v>70</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>69</v>
@@ -8950,13 +8937,13 @@
         <v>69</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9007,22 +8994,22 @@
         <v>69</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>69</v>
@@ -9036,18 +9023,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>69</v>
@@ -9059,17 +9046,15 @@
         <v>69</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>69</v>
@@ -9118,22 +9103,22 @@
         <v>69</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>69</v>
@@ -9147,11 +9132,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9164,26 +9149,24 @@
         <v>69</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>69</v>
       </c>
@@ -9231,7 +9214,7 @@
         <v>69</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>70</v>
@@ -9246,7 +9229,7 @@
         <v>128</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>69</v>
@@ -9260,39 +9243,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>69</v>
       </c>
@@ -9340,22 +9327,22 @@
         <v>69</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>305</v>
+        <v>196</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>69</v>
@@ -9369,7 +9356,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9380,7 +9367,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>69</v>
@@ -9392,13 +9379,13 @@
         <v>69</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9449,13 +9436,13 @@
         <v>69</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>69</v>
@@ -9478,7 +9465,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9489,7 +9476,7 @@
         <v>70</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>69</v>
@@ -9501,13 +9488,13 @@
         <v>69</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9558,13 +9545,13 @@
         <v>69</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>69</v>
@@ -9587,7 +9574,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9601,7 +9588,7 @@
         <v>71</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>69</v>
@@ -9613,10 +9600,10 @@
         <v>181</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9655,19 +9642,19 @@
         <v>69</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>70</v>
@@ -9696,7 +9683,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9722,10 +9709,10 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9776,7 +9763,7 @@
         <v>69</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>70</v>
@@ -9791,7 +9778,7 @@
         <v>69</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>69</v>
@@ -9805,7 +9792,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9834,7 +9821,7 @@
         <v>124</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>126</v>
@@ -9887,7 +9874,7 @@
         <v>69</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>70</v>
@@ -9902,7 +9889,7 @@
         <v>128</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>69</v>
@@ -9916,11 +9903,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9942,10 +9929,10 @@
         <v>123</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>126</v>
@@ -10000,7 +9987,7 @@
         <v>69</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>70</v>
@@ -10029,7 +10016,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10052,13 +10039,13 @@
         <v>69</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10109,7 +10096,7 @@
         <v>69</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10138,7 +10125,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10161,13 +10148,13 @@
         <v>69</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10218,7 +10205,7 @@
         <v>69</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>70</v>
@@ -10245,11 +10232,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>69</v>
       </c>
@@ -10273,10 +10262,10 @@
         <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10315,19 +10304,19 @@
         <v>69</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>70</v>
@@ -10356,7 +10345,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10382,10 +10371,10 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10436,7 +10425,7 @@
         <v>69</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>70</v>
@@ -10451,7 +10440,7 @@
         <v>69</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>69</v>
@@ -10465,7 +10454,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10494,7 +10483,7 @@
         <v>124</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>126</v>
@@ -10547,7 +10536,7 @@
         <v>69</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>70</v>
@@ -10562,7 +10551,7 @@
         <v>128</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>69</v>
@@ -10576,11 +10565,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10602,10 +10591,10 @@
         <v>123</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>126</v>
@@ -10660,7 +10649,7 @@
         <v>69</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>70</v>
@@ -10689,7 +10678,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10715,10 +10704,10 @@
         <v>135</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10730,7 +10719,7 @@
         <v>69</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>69</v>
@@ -10769,7 +10758,7 @@
         <v>69</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10798,7 +10787,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10824,10 +10813,10 @@
         <v>135</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10878,7 +10867,7 @@
         <v>69</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>70</v>
@@ -10905,13 +10894,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B84" t="s" s="2">
         <v>339</v>
       </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>69</v>
       </c>
@@ -10920,10 +10907,10 @@
         <v>70</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>69</v>
@@ -10935,10 +10922,10 @@
         <v>181</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10989,13 +10976,13 @@
         <v>69</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>69</v>
@@ -11018,7 +11005,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11044,10 +11031,10 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11098,7 +11085,7 @@
         <v>69</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>70</v>
@@ -11113,7 +11100,7 @@
         <v>69</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>69</v>
@@ -11127,7 +11114,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11156,7 +11143,7 @@
         <v>124</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>126</v>
@@ -11209,7 +11196,7 @@
         <v>69</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>70</v>
@@ -11224,7 +11211,7 @@
         <v>128</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>69</v>
@@ -11238,11 +11225,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11264,10 +11251,10 @@
         <v>123</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>126</v>
@@ -11322,7 +11309,7 @@
         <v>69</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>70</v>
@@ -11351,7 +11338,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11359,7 +11346,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>77</v>
@@ -11377,10 +11364,10 @@
         <v>135</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11392,7 +11379,7 @@
         <v>69</v>
       </c>
       <c r="R88" t="s" s="2">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>69</v>
@@ -11407,13 +11394,13 @@
         <v>69</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>69</v>
@@ -11431,10 +11418,10 @@
         <v>69</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -11460,7 +11447,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11471,7 +11458,7 @@
         <v>70</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>69</v>
@@ -11483,13 +11470,13 @@
         <v>69</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11540,13 +11527,13 @@
         <v>69</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>69</v>
@@ -11569,7 +11556,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11580,10 +11567,10 @@
         <v>70</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>69</v>
@@ -11595,10 +11582,10 @@
         <v>181</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11637,25 +11624,25 @@
         <v>69</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>69</v>
@@ -11678,7 +11665,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11704,10 +11691,10 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11758,7 +11745,7 @@
         <v>69</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>70</v>
@@ -11773,7 +11760,7 @@
         <v>69</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>69</v>
@@ -11787,7 +11774,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11816,7 +11803,7 @@
         <v>124</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>126</v>
@@ -11869,7 +11856,7 @@
         <v>69</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>70</v>
@@ -11884,7 +11871,7 @@
         <v>128</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>69</v>
@@ -11898,11 +11885,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11924,10 +11911,10 @@
         <v>123</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>126</v>
@@ -11982,7 +11969,7 @@
         <v>69</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>70</v>
@@ -12011,7 +11998,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12037,10 +12024,10 @@
         <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12070,10 +12057,10 @@
         <v>139</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>69</v>
@@ -12091,7 +12078,7 @@
         <v>69</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>70</v>
@@ -12120,7 +12107,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12143,15 +12130,17 @@
         <v>69</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>69</v>
@@ -12200,7 +12189,7 @@
         <v>69</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>70</v>
@@ -12227,11 +12216,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>69</v>
       </c>
@@ -12240,7 +12231,7 @@
         <v>70</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -12255,10 +12246,10 @@
         <v>181</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12297,19 +12288,19 @@
         <v>69</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>70</v>
@@ -12338,7 +12329,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12364,10 +12355,10 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12418,7 +12409,7 @@
         <v>69</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>70</v>
@@ -12433,7 +12424,7 @@
         <v>69</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>69</v>
@@ -12447,7 +12438,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12476,7 +12467,7 @@
         <v>124</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>126</v>
@@ -12529,7 +12520,7 @@
         <v>69</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>70</v>
@@ -12544,7 +12535,7 @@
         <v>128</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>69</v>
@@ -12558,11 +12549,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12584,10 +12575,10 @@
         <v>123</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>126</v>
@@ -12642,7 +12633,7 @@
         <v>69</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>70</v>
@@ -12671,7 +12662,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12679,7 +12670,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>77</v>
@@ -12697,10 +12688,10 @@
         <v>135</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12712,7 +12703,7 @@
         <v>69</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>69</v>
@@ -12730,10 +12721,10 @@
         <v>139</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>69</v>
@@ -12751,7 +12742,7 @@
         <v>69</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>70</v>
@@ -12780,7 +12771,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12803,16 +12794,16 @@
         <v>69</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12862,7 +12853,7 @@
         <v>69</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>70</v>
@@ -12891,7 +12882,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>371</v>
@@ -12919,10 +12910,10 @@
         <v>181</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12973,7 +12964,7 @@
         <v>69</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>70</v>
@@ -13002,7 +12993,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13028,10 +13019,10 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13082,7 +13073,7 @@
         <v>69</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>70</v>
@@ -13097,7 +13088,7 @@
         <v>69</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>69</v>
@@ -13111,7 +13102,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13140,7 +13131,7 @@
         <v>124</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>126</v>
@@ -13193,7 +13184,7 @@
         <v>69</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>70</v>
@@ -13208,7 +13199,7 @@
         <v>128</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>69</v>
@@ -13222,11 +13213,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13248,10 +13239,10 @@
         <v>123</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>126</v>
@@ -13306,7 +13297,7 @@
         <v>69</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>70</v>
@@ -13335,7 +13326,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13361,10 +13352,10 @@
         <v>135</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13394,10 +13385,10 @@
         <v>139</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>69</v>
@@ -13415,7 +13406,7 @@
         <v>69</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>70</v>
@@ -13444,7 +13435,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13467,16 +13458,16 @@
         <v>69</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13526,7 +13517,7 @@
         <v>69</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>70</v>
@@ -13555,7 +13546,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>373</v>
@@ -13583,10 +13574,10 @@
         <v>181</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13637,7 +13628,7 @@
         <v>69</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>70</v>
@@ -13666,7 +13657,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13692,10 +13683,10 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13746,7 +13737,7 @@
         <v>69</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>70</v>
@@ -13761,7 +13752,7 @@
         <v>69</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>69</v>
@@ -13775,7 +13766,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13804,7 +13795,7 @@
         <v>124</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>126</v>
@@ -13857,7 +13848,7 @@
         <v>69</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>70</v>
@@ -13872,7 +13863,7 @@
         <v>128</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>69</v>
@@ -13886,11 +13877,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13912,10 +13903,10 @@
         <v>123</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>126</v>
@@ -13970,7 +13961,7 @@
         <v>69</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>70</v>
@@ -13999,7 +13990,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14025,10 +14016,10 @@
         <v>135</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14058,10 +14049,10 @@
         <v>139</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>69</v>
@@ -14079,7 +14070,7 @@
         <v>69</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>70</v>
@@ -14108,7 +14099,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14131,16 +14122,16 @@
         <v>69</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14190,7 +14181,7 @@
         <v>69</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>70</v>
@@ -14219,11 +14210,9 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B114" t="s" s="2">
         <v>375</v>
       </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>69</v>
       </c>
@@ -14232,7 +14221,7 @@
         <v>70</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -14244,13 +14233,13 @@
         <v>69</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14301,7 +14290,7 @@
         <v>69</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>70</v>
@@ -14330,7 +14319,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14341,7 +14330,7 @@
         <v>70</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>69</v>
@@ -14353,13 +14342,13 @@
         <v>69</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14410,22 +14399,22 @@
         <v>69</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>69</v>
@@ -14439,18 +14428,18 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>69</v>
@@ -14462,17 +14451,15 @@
         <v>69</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>69</v>
@@ -14521,22 +14508,22 @@
         <v>69</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>69</v>
@@ -14550,11 +14537,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14567,26 +14554,24 @@
         <v>69</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N117" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>69</v>
       </c>
@@ -14634,7 +14619,7 @@
         <v>69</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>70</v>
@@ -14649,7 +14634,7 @@
         <v>128</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>69</v>
@@ -14663,39 +14648,43 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>69</v>
       </c>
@@ -14704,7 +14693,7 @@
         <v>69</v>
       </c>
       <c r="R118" t="s" s="2">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>69</v>
@@ -14719,13 +14708,13 @@
         <v>69</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>364</v>
+        <v>69</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>69</v>
@@ -14743,22 +14732,22 @@
         <v>69</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>69</v>
@@ -14772,7 +14761,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14780,7 +14769,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>77</v>
@@ -14795,17 +14784,15 @@
         <v>69</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>69</v>
@@ -14854,10 +14841,10 @@
         <v>69</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -14881,9 +14868,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14897,7 +14884,7 @@
         <v>71</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>69</v>
@@ -14906,13 +14893,13 @@
         <v>69</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>378</v>
+        <v>181</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14963,7 +14950,7 @@
         <v>69</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>70</v>
@@ -14990,9 +14977,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15003,10 +14990,10 @@
         <v>70</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>69</v>
@@ -15015,13 +15002,13 @@
         <v>69</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>383</v>
+        <v>186</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15072,22 +15059,22 @@
         <v>69</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>381</v>
+        <v>187</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>69</v>
@@ -15101,18 +15088,18 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>69</v>
@@ -15124,15 +15111,17 @@
         <v>69</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>69</v>
@@ -15181,22 +15170,22 @@
         <v>69</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>69</v>
@@ -15210,11 +15199,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15227,24 +15216,26 @@
         <v>69</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>69</v>
       </c>
@@ -15292,7 +15283,7 @@
         <v>69</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>70</v>
@@ -15307,7 +15298,7 @@
         <v>128</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>69</v>
@@ -15321,43 +15312,39 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>69</v>
       </c>
@@ -15405,22 +15392,22 @@
         <v>69</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>69</v>
@@ -15434,7 +15421,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15457,13 +15444,13 @@
         <v>69</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15514,7 +15501,7 @@
         <v>69</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -15543,7 +15530,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15569,10 +15556,10 @@
         <v>181</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15623,7 +15610,7 @@
         <v>69</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>70</v>
@@ -15652,7 +15639,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15678,10 +15665,10 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15732,7 +15719,7 @@
         <v>69</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>70</v>
@@ -15747,7 +15734,7 @@
         <v>69</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>69</v>
@@ -15761,7 +15748,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15790,7 +15777,7 @@
         <v>124</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>126</v>
@@ -15843,7 +15830,7 @@
         <v>69</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>70</v>
@@ -15858,7 +15845,7 @@
         <v>128</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>69</v>
@@ -15872,11 +15859,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15898,10 +15885,10 @@
         <v>123</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>126</v>
@@ -15956,7 +15943,7 @@
         <v>69</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>70</v>
@@ -15985,7 +15972,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16011,10 +15998,10 @@
         <v>135</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16065,7 +16052,7 @@
         <v>69</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16094,7 +16081,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16102,7 +16089,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>77</v>
@@ -16117,13 +16104,13 @@
         <v>69</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16174,10 +16161,10 @@
         <v>69</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -16203,7 +16190,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16214,7 +16201,7 @@
         <v>70</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>69</v>
@@ -16226,13 +16213,13 @@
         <v>69</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16283,22 +16270,22 @@
         <v>69</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>402</v>
+        <v>187</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>69</v>
@@ -16312,18 +16299,18 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>69</v>
@@ -16335,15 +16322,17 @@
         <v>69</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>69</v>
@@ -16392,22 +16381,22 @@
         <v>69</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>69</v>
@@ -16421,11 +16410,11 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16438,24 +16427,26 @@
         <v>69</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N134" s="2"/>
+      <c r="N134" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>69</v>
       </c>
@@ -16503,7 +16494,7 @@
         <v>69</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>70</v>
@@ -16518,7 +16509,7 @@
         <v>128</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>69</v>
@@ -16532,43 +16523,39 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>197</v>
+        <v>416</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>69</v>
       </c>
@@ -16616,22 +16603,22 @@
         <v>69</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>199</v>
+        <v>415</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>69</v>
@@ -16645,7 +16632,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16653,7 +16640,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>77</v>
@@ -16668,13 +16655,13 @@
         <v>69</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16725,10 +16712,10 @@
         <v>69</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -16752,9 +16739,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16765,10 +16752,10 @@
         <v>70</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>69</v>
@@ -16780,10 +16767,10 @@
         <v>181</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16834,13 +16821,13 @@
         <v>69</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>69</v>
@@ -16863,7 +16850,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16889,10 +16876,10 @@
         <v>79</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16943,7 +16930,7 @@
         <v>69</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>70</v>
@@ -16958,7 +16945,7 @@
         <v>69</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>69</v>
@@ -16972,7 +16959,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17001,7 +16988,7 @@
         <v>124</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>126</v>
@@ -17054,7 +17041,7 @@
         <v>69</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>70</v>
@@ -17069,7 +17056,7 @@
         <v>128</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>69</v>
@@ -17083,11 +17070,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17109,10 +17096,10 @@
         <v>123</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>126</v>
@@ -17167,7 +17154,7 @@
         <v>69</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>70</v>
@@ -17196,7 +17183,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17204,10 +17191,10 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>69</v>
@@ -17222,10 +17209,10 @@
         <v>172</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17276,13 +17263,13 @@
         <v>69</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>69</v>
@@ -17305,7 +17292,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17316,7 +17303,7 @@
         <v>70</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>69</v>
@@ -17328,13 +17315,13 @@
         <v>69</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>421</v>
+        <v>172</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17385,13 +17372,13 @@
         <v>69</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>69</v>
@@ -17412,9 +17399,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17425,10 +17412,10 @@
         <v>70</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>69</v>
@@ -17437,13 +17424,13 @@
         <v>69</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>181</v>
+        <v>419</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17494,13 +17481,13 @@
         <v>69</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>69</v>
@@ -17521,668 +17508,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM149">
+  <autoFilter ref="A1:AM143">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18192,7 +17519,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI148">
+  <conditionalFormatting sqref="A2:AI142">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeVmpGroup.xlsx
+++ b/branches/master/StructureDefinition-BeVmpGroup.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
